--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liveproject\Hybrid_FrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8645504B-6240-4385-A325-941076C3D76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD989518-1391-4582-AC64-00C8B3A53AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -592,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BD390D-473A-4EC2-B862-9E25DA478D29}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -674,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8435-E577-48AC-988E-2FCFADD2EEB8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F37" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liveproject\Hybrid_FrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD989518-1391-4582-AC64-00C8B3A53AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43790C46-B7E0-4848-A146-E4C2B79A3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t>TCID</t>
   </si>
@@ -173,6 +173,123 @@
   </si>
   <si>
     <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Wait for stock item</t>
+  </si>
+  <si>
+    <t>//a[text()='Stock Items ']</t>
+  </si>
+  <si>
+    <t>xpah</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t>x_Stock_Name</t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t>Click stock items link</t>
+  </si>
+  <si>
+    <t>Wait for add icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click addicon </t>
+  </si>
+  <si>
+    <t>Wait for catogory listbox</t>
+  </si>
+  <si>
+    <t>Select item in catogory</t>
+  </si>
+  <si>
+    <t>Select item in supplier number</t>
+  </si>
+  <si>
+    <t>Capture stock number</t>
+  </si>
+  <si>
+    <t>Enter stock name</t>
+  </si>
+  <si>
+    <t>Select item in unit of measurement</t>
+  </si>
+  <si>
+    <t>Enter purchasing price</t>
+  </si>
+  <si>
+    <t>Enter selling price</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Selling Puzzels</t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Verify stock number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for confirm ok button</t>
+  </si>
+  <si>
+    <t>Click confirm ok  button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for alert ok</t>
+  </si>
+  <si>
+    <t>Click alert ok</t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Cars</t>
   </si>
 </sst>
 </file>
@@ -261,12 +378,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BD390D-473A-4EC2-B862-9E25DA478D29}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -628,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -665,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8435-E577-48AC-988E-2FCFADD2EEB8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,9 +987,15 @@
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
   </sheetData>
@@ -879,19 +1005,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CF4CB3-2AB7-4D9F-958A-F07A6DBB759C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -914,6 +1041,528 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="6">
+        <v>500000</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liveproject\Hybrid_FrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43790C46-B7E0-4848-A146-E4C2B79A3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A3447-6063-4775-85EE-7E99234DB029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="141">
   <si>
     <t>TCID</t>
   </si>
@@ -208,6 +208,9 @@
     <t>x_Stock_Name</t>
   </si>
   <si>
+    <t>Puzzels</t>
+  </si>
+  <si>
     <t>x_Unit_Of_Measurement</t>
   </si>
   <si>
@@ -289,14 +292,173 @@
     <t>(//button[starts-with(text(),'OK')])[6]</t>
   </si>
   <si>
-    <t>Cars</t>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Wait for supplier link</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>Capture supplier number</t>
+  </si>
+  <si>
+    <t>capturesup</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter phone number </t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter mobile number </t>
+  </si>
+  <si>
+    <t>Verify supplier  number</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Akhlish</t>
+  </si>
+  <si>
+    <t>Ameertpet,201,flat,beside satyam</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>9988221133</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>7788449933</t>
+  </si>
+  <si>
+    <t>Iam supplying lg goods</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>Wait for customer number</t>
+  </si>
+  <si>
+    <t>Capture customer number</t>
+  </si>
+  <si>
+    <t>Enter customer name</t>
+  </si>
+  <si>
+    <t>capturecus</t>
+  </si>
+  <si>
+    <t>customertable</t>
+  </si>
+  <si>
+    <t>Verify customer  number</t>
+  </si>
+  <si>
+    <t>Wait for customer link</t>
+  </si>
+  <si>
+    <t>Click customer link</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>sita</t>
+  </si>
+  <si>
+    <t>madanapalli</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Qedgetech</t>
+  </si>
+  <si>
+    <t>9988332211</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>8874429922</t>
+  </si>
+  <si>
+    <t>Iam customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +494,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF1C1C14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,20 +545,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -703,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BD390D-473A-4EC2-B862-9E25DA478D29}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,7 +922,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -760,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -772,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -785,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8435-E577-48AC-988E-2FCFADD2EEB8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:F11"/>
     </sheetView>
   </sheetViews>
@@ -1007,9 +1181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CF4CB3-2AB7-4D9F-958A-F07A6DBB759C}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,13 +1361,13 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1202,34 +1376,34 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1238,34 +1412,34 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1274,34 +1448,34 @@
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1310,223 +1484,223 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="6">
-        <v>300000</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="6">
-        <v>500000</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="6">
-        <v>10</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
@@ -1571,19 +1745,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1461C2E-3AB9-41FA-820C-0D7C35459D72}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1607,26 +1782,588 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{B98C6B88-DA46-4CB6-AF0F-5D4C57389EB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55680ABC-5F66-47F7-9BF2-26F23E4A5496}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1650,7 +2387,568 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{D58A78F5-DEBD-4F43-B084-97D19D8B168A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>